--- a/data.xlsx
+++ b/data.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -374,42 +374,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -425,7 +428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
